--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://texastechuniversity.sharepoint.com/sites/ProjectLab3/Shared Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="533" documentId="13_ncr:20001_{F19A5FF1-7EBB-42C9-9C45-6CA0041395D6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="39" xr10:uidLastSave="{C20C89EC-3691-42F0-BEFE-A6C5772F9726}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="11_7BCA2D4782867F42031822883FC120558396F122" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{BA62C2E7-1F91-4D31-BDD4-20F213BC53A3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="21135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="71">
   <si>
     <t>Zigbee Network Working w/ Simple Devices</t>
   </si>
@@ -155,6 +161,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Test and Debug w/ UART Output</t>
+  </si>
+  <si>
     <t>Door Lock System</t>
   </si>
   <si>
@@ -162,9 +171,6 @@
   </si>
   <si>
     <t>Order Hardware</t>
-  </si>
-  <si>
-    <t>Build Lock circuit</t>
   </si>
   <si>
     <t>Test and Debug with Code</t>
@@ -209,6 +215,15 @@
     <t>Write and Test Algorithm</t>
   </si>
   <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Write GUI for Device</t>
+  </si>
+  <si>
+    <t>Integrate GUIs</t>
+  </si>
+  <si>
     <t>Facial Recognition</t>
   </si>
   <si>
@@ -221,17 +236,23 @@
     <t>Detect Faces</t>
   </si>
   <si>
+    <t>Integrate Zigbee Communication</t>
+  </si>
+  <si>
     <t>Integrate it with Door</t>
   </si>
   <si>
-    <t>Complete Face Detection</t>
+    <t>Completed Face Detection</t>
+  </si>
+  <si>
+    <t>Build Motor circuit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -316,8 +337,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,12 +400,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FF00FF00"/>
       </patternFill>
@@ -386,12 +407,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,19 +454,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FFDADADA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor rgb="FFDADADA"/>
       </patternFill>
     </fill>
@@ -556,22 +571,22 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -580,16 +595,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,10 +621,10 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -617,36 +632,36 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -658,10 +673,10 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -671,79 +686,79 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,10 +766,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,20 +850,20 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,7 +872,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,23 +913,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -925,14 +929,14 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -951,37 +955,37 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
@@ -994,51 +998,51 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1046,36 +1050,45 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1084,7 +1097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1176,50 +1189,41 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1228,47 +1232,46 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="44" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="43" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1280,14 +1283,78 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="10" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1296,7 +1363,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1305,71 +1372,10 @@
     <xf numFmtId="9" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="10" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1387,32 +1393,76 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="12" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1458,7 +1508,7 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="23517225" y="6572250"/>
+              <a:off x="23558789" y="6544541"/>
               <a:ext cx="3286125" cy="2324100"/>
               <a:chOff x="14258925" y="5238750"/>
               <a:chExt cx="3286125" cy="2324100"/>
@@ -1493,7 +1543,7 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="25469850" y="6543675"/>
+              <a:off x="25514877" y="6515966"/>
               <a:ext cx="3333750" cy="2352675"/>
               <a:chOff x="14573250" y="5210175"/>
               <a:chExt cx="3333750" cy="2352675"/>
@@ -1528,7 +1578,7 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="25727025" y="8715375"/>
+              <a:off x="25772052" y="8718839"/>
               <a:ext cx="2924175" cy="2066925"/>
               <a:chOff x="14830425" y="8982075"/>
               <a:chExt cx="2924175" cy="2066925"/>
@@ -1563,7 +1613,7 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="25498425" y="8458200"/>
+              <a:off x="25543452" y="8468591"/>
               <a:ext cx="2066925" cy="1457325"/>
               <a:chOff x="14601825" y="6591300"/>
               <a:chExt cx="2066925" cy="1457325"/>
@@ -1601,7 +1651,7 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="21021675" y="8534400"/>
+              <a:off x="21059775" y="8537864"/>
               <a:ext cx="4324350" cy="3057525"/>
               <a:chOff x="13411200" y="8534400"/>
               <a:chExt cx="4324350" cy="3057525"/>
@@ -1636,7 +1686,7 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="23088600" y="7077075"/>
+              <a:off x="23130164" y="7070148"/>
               <a:ext cx="3352800" cy="2371725"/>
               <a:chOff x="13830300" y="5476875"/>
               <a:chExt cx="3352800" cy="2371725"/>
@@ -1674,7 +1724,7 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="18878550" y="8534400"/>
+              <a:off x="18913186" y="8537864"/>
               <a:ext cx="4848225" cy="3429000"/>
               <a:chOff x="12906375" y="8153400"/>
               <a:chExt cx="4848225" cy="3429000"/>
@@ -1690,13 +1740,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>214312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1733,6 +1783,65 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2219325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C35D389-E33E-42E9-94C2-689724C59563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20774025" y="1285875"/>
+          <a:ext cx="38100" cy="14801850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2044,10 +2153,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R955"/>
+  <dimension ref="A1:R956"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="N57" sqref="B5:N57"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="73" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2142,15 +2251,15 @@
       <c r="E5" s="2"/>
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="106" t="s">
+      <c r="H5" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="107"/>
+      <c r="I5" s="127"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="106" t="s">
+      <c r="K5" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="105"/>
+      <c r="L5" s="132"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2158,7 +2267,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" ht="21" customHeight="1">
+    <row r="6" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
@@ -2178,19 +2287,19 @@
       <c r="G6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="36" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="11" t="s">
@@ -2204,32 +2313,32 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" ht="21" customHeight="1">
+    <row r="7" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="127" t="e">
+      <c r="C7" s="105"/>
+      <c r="D7" s="106" t="e">
         <f>SUM(#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E7" s="97"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="119" t="s">
+      <c r="P7" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="121"/>
-    </row>
-    <row r="8" spans="1:18" ht="21" customHeight="1">
+      <c r="Q7" s="117"/>
+      <c r="R7" s="118"/>
+    </row>
+    <row r="8" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A8" s="1"/>
       <c r="B8" s="18" t="s">
         <v>17</v>
@@ -2237,59 +2346,59 @@
       <c r="C8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
       <c r="O8" s="2"/>
       <c r="P8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="122" t="s">
+      <c r="Q8" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="123"/>
-    </row>
-    <row r="9" spans="1:18" ht="21" customHeight="1">
+      <c r="R8" s="120"/>
+    </row>
+    <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="39" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="114">
         <v>1</v>
       </c>
       <c r="E9" s="95"/>
       <c r="F9" s="95"/>
       <c r="G9" s="95"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
       <c r="O9" s="2"/>
       <c r="P9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="116" t="s">
+      <c r="Q9" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="117"/>
-    </row>
-    <row r="10" spans="1:18" ht="21" customHeight="1">
+      <c r="R9" s="122"/>
+    </row>
+    <row r="10" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="54" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="29" t="s">
@@ -2301,77 +2410,79 @@
       </c>
       <c r="F10" s="95"/>
       <c r="G10" s="95"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
       <c r="O10" s="2"/>
       <c r="P10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="116" t="s">
+      <c r="Q10" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="117"/>
+      <c r="R10" s="122"/>
     </row>
     <row r="11" spans="1:18" ht="21" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="54" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="101">
-        <v>0.15</v>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="95">
+        <v>1</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
       <c r="O11" s="2"/>
       <c r="P11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="118" t="s">
+      <c r="Q11" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="117"/>
-    </row>
-    <row r="12" spans="1:18" ht="21" customHeight="1">
+      <c r="R11" s="122"/>
+    </row>
+    <row r="12" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="95">
+        <v>1</v>
+      </c>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" ht="21">
+    <row r="13" spans="1:18" ht="21.75" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="30" t="s">
         <v>30</v>
@@ -2379,29 +2490,29 @@
       <c r="C13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
       <c r="O13" s="2"/>
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" ht="21">
       <c r="A14" s="2"/>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="39" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="94">
+      <c r="D14" s="114">
         <v>1</v>
       </c>
       <c r="E14" s="95"/>
@@ -2409,7 +2520,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="52"/>
+      <c r="J14" s="48"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
@@ -2419,21 +2530,21 @@
     </row>
     <row r="15" spans="1:18" ht="21.75" thickBot="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="40" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="131">
+      <c r="E15" s="94">
         <v>1</v>
       </c>
-      <c r="F15" s="132"/>
+      <c r="F15" s="102"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="52"/>
+      <c r="J15" s="48"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -2445,7 +2556,7 @@
     </row>
     <row r="16" spans="1:18" ht="21.75" thickBot="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="39" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -2454,70 +2565,74 @@
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="99">
-        <v>0.2</v>
+      <c r="G16" s="94">
+        <v>1</v>
       </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="52"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="63"/>
+      <c r="P16" s="56"/>
       <c r="Q16" s="19" t="s">
         <v>34</v>
       </c>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" ht="21.75" thickBot="1">
+    <row r="17" spans="1:18" ht="21">
       <c r="A17" s="2"/>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="55"/>
+      <c r="H17" s="94">
+        <v>1</v>
+      </c>
+      <c r="I17" s="102"/>
+      <c r="J17" s="133"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="64"/>
+      <c r="P17" s="57"/>
       <c r="Q17" s="22" t="s">
         <v>36</v>
       </c>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" ht="21">
+    <row r="18" spans="1:18" ht="21.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="35"/>
+      <c r="I18" s="135">
+        <v>1</v>
+      </c>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="65"/>
+      <c r="P18" s="58"/>
       <c r="Q18" s="20" t="s">
         <v>38</v>
       </c>
@@ -2531,69 +2646,69 @@
       <c r="C19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="67"/>
+      <c r="P19" s="60"/>
       <c r="Q19" s="27" t="s">
         <v>40</v>
       </c>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:18" ht="21">
+    <row r="20" spans="1:18" ht="21.75" thickBot="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="39" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="111">
-        <v>0.5</v>
+      <c r="D20" s="113">
+        <v>1</v>
       </c>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="54"/>
+      <c r="J20" s="49"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="66"/>
+      <c r="P20" s="59"/>
       <c r="Q20" s="22" t="s">
         <v>41</v>
       </c>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:18" ht="21">
+    <row r="21" spans="1:18" ht="21.75" thickBot="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="40" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="85">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H21" s="15"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="54"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="49"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
@@ -2602,10 +2717,10 @@
       <c r="P21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:18" ht="21">
+    <row r="22" spans="1:18" ht="21.75" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>21</v>
@@ -2614,10 +2729,12 @@
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="35"/>
+      <c r="H22" s="129">
+        <v>1</v>
+      </c>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
@@ -2627,40 +2744,40 @@
     </row>
     <row r="23" spans="1:18" ht="21.75" thickBot="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="72" t="s">
-        <v>42</v>
+      <c r="B23" s="64" t="s">
+        <v>43</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:18" ht="21">
       <c r="A24" s="2"/>
       <c r="B24" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="130">
+      <c r="D24" s="112">
         <v>1</v>
       </c>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
@@ -2671,25 +2788,25 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:18" ht="21.75" thickBot="1">
+    <row r="25" spans="1:18" ht="21.75" customHeight="1" thickBot="1">
       <c r="A25" s="2"/>
       <c r="B25" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="73" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="100">
-        <v>0.4</v>
+      <c r="F25" s="94">
+        <v>1</v>
       </c>
-      <c r="G25" s="100"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
       <c r="O25" s="2"/>
@@ -2698,8 +2815,8 @@
     </row>
     <row r="26" spans="1:18" ht="21.75" thickBot="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="79" t="s">
-        <v>45</v>
+      <c r="B26" s="71" t="s">
+        <v>70</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>27</v>
@@ -2707,14 +2824,16 @@
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="94">
+        <v>1</v>
+      </c>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="R26" s="2"/>
@@ -2724,7 +2843,7 @@
       <c r="B27" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="72" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="15"/>
@@ -2732,19 +2851,21 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="95">
+        <v>1</v>
+      </c>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:18" ht="21.75" thickBot="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="75" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="1"/>
@@ -2753,9 +2874,9 @@
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
@@ -2765,23 +2886,23 @@
     </row>
     <row r="29" spans="1:18" ht="21.75" thickBot="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="74" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -2789,25 +2910,25 @@
     </row>
     <row r="30" spans="1:18" ht="21">
       <c r="A30" s="1"/>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="53" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="112"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="99">
-        <v>0.7</v>
+      <c r="D30" s="107"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="94">
+        <v>1</v>
       </c>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2815,31 +2936,31 @@
     </row>
     <row r="31" spans="1:18" ht="21" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="54" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="101">
-        <v>0.2</v>
+      <c r="D31" s="77"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="95">
+        <v>1</v>
       </c>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="128"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="115"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="1:18" ht="21" customHeight="1">
+    <row r="32" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A32" s="1"/>
       <c r="B32" s="31" t="s">
         <v>51</v>
@@ -2847,23 +2968,25 @@
       <c r="C32" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="112"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="95">
+        <v>0.9</v>
+      </c>
+      <c r="L32" s="137"/>
+      <c r="M32" s="137"/>
+      <c r="N32" s="137"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="1:18" ht="21" customHeight="1">
+    <row r="33" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A33" s="2"/>
       <c r="B33" s="8" t="s">
         <v>52</v>
@@ -2871,17 +2994,17 @@
       <c r="C33" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="96"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -2889,119 +3012,123 @@
     </row>
     <row r="34" spans="1:18" ht="21" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="108">
-        <v>0.9</v>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="94">
+        <v>1</v>
       </c>
-      <c r="G34" s="109"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:18" ht="21" customHeight="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="39" t="s">
         <v>53</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="108">
-        <v>0.5</v>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="99">
+        <v>0.95</v>
       </c>
-      <c r="H35" s="109"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:18" ht="21" customHeight="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="39" t="s">
         <v>54</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="142">
+        <v>1</v>
+      </c>
+      <c r="J36" s="142"/>
+      <c r="K36" s="134"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:18" ht="21" customHeight="1">
+    <row r="37" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A37" s="2"/>
       <c r="B37" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="143">
+        <v>0.95</v>
+      </c>
+      <c r="L37" s="143"/>
+      <c r="M37" s="143"/>
+      <c r="N37" s="143"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A38" s="2"/>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="96"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -3009,25 +3136,25 @@
     </row>
     <row r="39" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="130">
+      <c r="D39" s="112">
         <v>1</v>
       </c>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -3035,77 +3162,81 @@
     </row>
     <row r="40" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A40" s="2"/>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="94">
+        <v>1</v>
+      </c>
+      <c r="H40" s="94"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="1:18" ht="21" customHeight="1">
+    <row r="41" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="39" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="94">
+        <v>1</v>
+      </c>
+      <c r="J41" s="94"/>
+      <c r="K41" s="138"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="1:18" ht="21" customHeight="1">
+    <row r="42" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="39" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="1:18" ht="21" customHeight="1">
+    <row r="43" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A43" s="2"/>
       <c r="B43" s="8" t="s">
         <v>39</v>
@@ -3113,115 +3244,121 @@
       <c r="C43" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="96"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
+      <c r="D43" s="139"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="1:18" ht="21" customHeight="1">
+    <row r="44" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="98">
-        <v>0.75</v>
+      <c r="D44" s="96">
+        <v>1</v>
       </c>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:18" ht="21" customHeight="1">
+    <row r="45" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="94">
+        <v>1</v>
+      </c>
+      <c r="H45" s="94"/>
+      <c r="I45" s="138"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="1:18" ht="21" customHeight="1">
+    <row r="46" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="97">
+        <v>1</v>
+      </c>
+      <c r="J46" s="97"/>
+      <c r="K46" s="138"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="1:18" ht="21" customHeight="1">
+    <row r="47" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A47" s="2"/>
       <c r="B47" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="144">
+        <v>1</v>
+      </c>
+      <c r="L47" s="144"/>
+      <c r="M47" s="144"/>
+      <c r="N47" s="144"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -3229,23 +3366,23 @@
     </row>
     <row r="48" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A48" s="2"/>
-      <c r="B48" s="76" t="s">
+      <c r="B48" s="82" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
-      <c r="D48" s="96"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -3253,50 +3390,50 @@
     </row>
     <row r="49" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A49" s="2"/>
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="59" t="s">
-        <v>27</v>
+      <c r="C49" s="23" t="s">
+        <v>21</v>
       </c>
-      <c r="D49" s="98">
-        <v>0.8</v>
+      <c r="D49" s="96">
+        <v>1</v>
       </c>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="R49" s="2"/>
     </row>
     <row r="50" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A50" s="2"/>
-      <c r="B50" s="74" t="s">
+      <c r="B50" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="59" t="s">
-        <v>27</v>
+      <c r="C50" s="52" t="s">
+        <v>21</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="99">
-        <v>0.7</v>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="94">
+        <v>1</v>
       </c>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -3304,25 +3441,25 @@
     </row>
     <row r="51" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A51" s="2"/>
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="59" t="s">
-        <v>27</v>
+      <c r="C51" s="52" t="s">
+        <v>21</v>
       </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="90">
-        <v>0.5</v>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="97">
+        <v>1</v>
       </c>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
+      <c r="J51" s="97"/>
+      <c r="K51" s="138"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -3330,197 +3467,237 @@
     </row>
     <row r="52" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A52" s="2"/>
-      <c r="B52" s="78" t="s">
-        <v>63</v>
+      <c r="B52" s="22" t="s">
+        <v>55</v>
       </c>
-      <c r="C52" s="59" t="s">
-        <v>27</v>
+      <c r="C52" s="52" t="s">
+        <v>21</v>
       </c>
       <c r="D52" s="41"/>
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="144">
+        <v>1</v>
+      </c>
+      <c r="L52" s="144"/>
+      <c r="M52" s="144"/>
+      <c r="N52" s="144"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
     </row>
-    <row r="53" spans="1:18" ht="21" customHeight="1">
+    <row r="53" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A53" s="2"/>
-      <c r="B53" s="77" t="s">
-        <v>64</v>
+      <c r="B53" s="68" t="s">
+        <v>63</v>
       </c>
-      <c r="C53" s="69" t="s">
+      <c r="C53" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="41"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:18" ht="21" customHeight="1">
+    <row r="54" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A54" s="2"/>
-      <c r="B54" s="22" t="s">
-        <v>55</v>
+      <c r="B54" s="65" t="s">
+        <v>49</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
+      <c r="D54" s="96">
+        <v>1</v>
+      </c>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:18" ht="21" customHeight="1">
+    <row r="55" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="104" t="s">
-        <v>65</v>
+      <c r="B55" s="66" t="s">
+        <v>64</v>
       </c>
-      <c r="L55" s="105"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="C55" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="94">
+        <v>1</v>
+      </c>
+      <c r="G55" s="94"/>
+      <c r="H55" s="94"/>
+      <c r="I55" s="94"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" ht="21" customHeight="1">
+    <row r="56" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="B56" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="94">
+        <v>1</v>
+      </c>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:18" ht="21" customHeight="1">
+    <row r="57" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="B57" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="94">
+        <v>1</v>
+      </c>
+      <c r="J57" s="94"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="38"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:18" ht="21" customHeight="1">
+    <row r="58" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="B58" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="84"/>
+      <c r="J58" s="84"/>
+      <c r="K58" s="93">
+        <v>1</v>
+      </c>
+      <c r="L58" s="93"/>
+      <c r="M58" s="93"/>
+      <c r="N58" s="93"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
     </row>
-    <row r="59" spans="1:18" ht="21" customHeight="1">
+    <row r="59" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="B59" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="93">
+        <v>1</v>
+      </c>
+      <c r="L59" s="93"/>
+      <c r="M59" s="93"/>
+      <c r="N59" s="93"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
     </row>
-    <row r="60" spans="1:18" ht="21" customHeight="1">
+    <row r="60" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="B60" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="92"/>
+      <c r="L60" s="92"/>
+      <c r="M60" s="91">
+        <v>1</v>
+      </c>
+      <c r="N60" s="90"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
     </row>
-    <row r="61" spans="1:18" ht="21" customHeight="1">
+    <row r="61" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3531,8 +3708,10 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
+      <c r="K61" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="L61" s="89"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -3632,7 +3811,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="70"/>
+      <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -3652,7 +3831,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
+      <c r="L67" s="62"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -21236,6 +21415,8 @@
       <c r="M946" s="2"/>
       <c r="N946" s="2"/>
       <c r="O946" s="2"/>
+      <c r="P946" s="2"/>
+      <c r="Q946" s="2"/>
       <c r="R946" s="2"/>
     </row>
     <row r="947" spans="1:18" ht="21" customHeight="1">
@@ -21400,30 +21581,35 @@
       <c r="O955" s="2"/>
       <c r="R955" s="2"/>
     </row>
+    <row r="956" spans="1:18" ht="21" customHeight="1">
+      <c r="A956" s="2"/>
+      <c r="B956" s="2"/>
+      <c r="C956" s="2"/>
+      <c r="D956" s="2"/>
+      <c r="E956" s="2"/>
+      <c r="F956" s="2"/>
+      <c r="G956" s="2"/>
+      <c r="H956" s="2"/>
+      <c r="I956" s="2"/>
+      <c r="J956" s="2"/>
+      <c r="K956" s="2"/>
+      <c r="L956" s="2"/>
+      <c r="M956" s="2"/>
+      <c r="N956" s="2"/>
+      <c r="O956" s="2"/>
+      <c r="R956" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="D8:N8"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="G16:I16"/>
+  <mergeCells count="62">
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="I36:K36"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="G40:I40"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="D38:E38"/>
@@ -21436,13 +21622,47 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="D23:N23"/>
     <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G35:I35"/>
     <mergeCell ref="D44:G44"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="G45:I45"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="23" orientation="landscape" r:id="rId1"/>
@@ -21451,6 +21671,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -21459,9 +21685,9 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1B22A1172885C42B4C17DDA9CF5B338" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d220f669ff86428cf9283b69f2854026">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3d155d2-d32a-44a7-9afe-bbea3de853a7" xmlns:ns3="f75ba893-ee13-47ce-83cc-19c595ba784b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1eae2b4f3fb4df1e11babf1931c406ee" ns2:_="" ns3:_="">
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1B22A1172885C42B4C17DDA9CF5B338" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="629f80d9a8581f379ff066b58528b564">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3d155d2-d32a-44a7-9afe-bbea3de853a7" xmlns:ns3="f75ba893-ee13-47ce-83cc-19c595ba784b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="29670cef0780f2ed14e7a3774b3c37a1" ns2:_="" ns3:_="">
     <xsd:import namespace="a3d155d2-d32a-44a7-9afe-bbea3de853a7"/>
     <xsd:import namespace="f75ba893-ee13-47ce-83cc-19c595ba784b"/>
     <xsd:element name="properties">
@@ -21474,6 +21700,7 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -21492,6 +21719,11 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -21624,13 +21856,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65577F5F-904D-4EFB-AD6B-58BD8B713B10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a3d155d2-d32a-44a7-9afe-bbea3de853a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f75ba893-ee13-47ce-83cc-19c595ba784b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C45C6A72-4108-4F33-BD9A-0FF750B0FB4C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -21638,8 +21881,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91A47F4E-E1D6-441F-8106-11F3DABA2FF6}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2ED591F-B0A1-4EE0-A862-488E7AC3F138}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -21655,21 +21898,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65577F5F-904D-4EFB-AD6B-58BD8B713B10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f75ba893-ee13-47ce-83cc-19c595ba784b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="a3d155d2-d32a-44a7-9afe-bbea3de853a7"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>